--- a/medicine/Handicap/Cube_(film,_1997)/Cube_(film,_1997).xlsx
+++ b/medicine/Handicap/Cube_(film,_1997)/Cube_(film,_1997).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cube est un film de science-fiction horrifique canadien réalisé par Vincenzo Natali, sorti en 1997. Une suite, Cube 2, est sortie en 2002 ainsi qu'une préquelle, Cube Zero, directement en vidéo en 2004. En 2021, un remake japonais, Cube, est réalisé.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un homme s’éveille au centre d’une pièce cubique vide, possédant des issues au centre de toutes ses faces. Il utilise une des trappes pour la quitter et se retrouve dans une pièce identique à l’exception de la couleur. Sans avertissement, il est tué par un grillage de fils de rasoir qui le découpent en morceaux.
 Dans des pièces adjacentes, cinq personnes se rencontrent, vêtues de façon identique, toutes ignorant la raison de leur présence dans ce lieu et ne se souvenant pas de leurs arrivées respectives. Quentin, un policier, informe les autres que certaines pièces sont mortelles, ayant réchappé à l’une d’elles. Rennes, une des personnes présentes, le sait et utilise ses bottes pour tester la dangerosité des pièces. En passant dans la pièce suivante, Leaven, toujours au lycée mais très douée en mathématiques, note la présence de numéros sur le bord des pièces. Quentin reconnaît Rennes et l’identifie comme étant un malfrat, spécialiste de l’évasion. Holloway annonce qu’elle est médecin et adepte des théories du complot, déclarant que seul le gouvernement peut les avoir conduits ici, tandis que Worth annonce qu’il n’a aucune particularité dans la vie. Lors du passage dans la pièce suivante, Rennes est tué, aspergé par un puissant acide qui lui ronge le visage. Les rescapés comprennent que les pièces sont dotées de capteurs différents.
@@ -547,7 +561,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre : Cube
@@ -562,17 +578,17 @@
 Montage : John Sanders
 Production : Mehra Meh et Betty Orr
 Production déléguée : Colin Brunton
-Sociétés de production[1] : Cube Libre, Odeon Films, Ontario Film Development Corporation, The Feature Film Project, The Harold Greenberg Fund, Téléfilm Canada et Viacom Canada
-Société de distribution[1] : Cineplex Odeon Films (Canada), Metropolitan Filmexport (France)
-Budget : 250 000 dollars[2]
-Budget : 365 000 dollars (CAD)[3] (estimation)
+Sociétés de production : Cube Libre, Odeon Films, Ontario Film Development Corporation, The Feature Film Project, The Harold Greenberg Fund, Téléfilm Canada et Viacom Canada
+Société de distribution : Cineplex Odeon Films (Canada), Metropolitan Filmexport (France)
+Budget : 250 000 dollars
+Budget : 365 000 dollars (CAD) (estimation)
 Pays d'origine :  Canada
 Langue originale : anglais, allemand, français
-Format[4] : couleur (DeLuxe) - 35 mm - 1,85:1 - son Ultra Stéréo
+Format : couleur (DeLuxe) - 35 mm - 1,85:1 - son Ultra Stéréo
 Genre : épouvante-horreur, science-fiction, drame, thriller, mystère
 Durée : 90 minutes
-Dates de sortie[5] :
-Québec : 11 juillet 1997[6]
+Dates de sortie :
+Québec : 11 juillet 1997
 Canada : 9 septembre 1997 (Festival international du film de Toronto), 18 septembre 1997 (Cinéfest Sudbury International Film Festival)
 France : 28 avril 1999
 Suisse romande : 17 novembre 1999
@@ -588,11 +604,11 @@
 Hongrie : 10 octobre 1999 (Titanic International Filmpresence Festival)
 Norvège : 4 juillet 2000 (Filmquart Film Festival)
 République tchèque : 4 juillet 2000 (Febio Film Festival - International Film Festival Prague)
-Classification[7] :
+Classification :
  Canada : 18A - 18 Accompaniment (Les personnes de moins de 18 ans doivent être accompagnées d'un adulte).
  Ontario : R - Restricted (Interdit aux moins de 18 ans).
  Québec : 16+ - 16 years and over (16 ans et plus).
- France : Interdit aux moins de 12 ans (visa d'exploitation no 97105 délivré le 28 avril 1999)[8].</t>
+ France : Interdit aux moins de 12 ans (visa d'exploitation no 97105 délivré le 28 avril 1999).</t>
         </is>
       </c>
     </row>
@@ -620,7 +636,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>David Hewlett (VF : Renaud Marx) : David Worth, architecte
 Julian Richings : Alderson, première victime
@@ -657,6 +675,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -684,16 +704,20 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Accueil critique
-Aux États-Unis, le long-métrage a reçu un accueil critique généralement favorable :
-Les utilisateurs du site Internet Movie Database ont donné un vote moyen pondéré de 7,2⁄10 sur la base de 235 497 critiques[13].
-La presse américaine sur le site Metacritic a des avis favorables, le score obtenu est de 61⁄100 sur la base de 12 avis critiques. De même que le public, il est plutôt reconnaissant en obtenant une moyenne de 7,4⁄10 sur la base de 185 évaluations[9].
-Sur le site agrégateur américain Rotten Tomatoes, le film bénéficie d'un taux d'approbation de 64% basé sur 39 opinions (25 critiques positives et 14 négatives) et d'une note moyenne de 6,30⁄10. Le consensus critique du site Web se lit comme suit : « Cube a parfois du mal à savoir où prendre ses prémisses intrigantes, mais un rythme captivant et une intelligence impressionnante font qu'il est difficile de se détourner. »[10].
+          <t>Accueil critique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Aux États-Unis, le long-métrage a reçu un accueil critique généralement favorable :
+Les utilisateurs du site Internet Movie Database ont donné un vote moyen pondéré de 7,2⁄10 sur la base de 235 497 critiques.
+La presse américaine sur le site Metacritic a des avis favorables, le score obtenu est de 61⁄100 sur la base de 12 avis critiques. De même que le public, il est plutôt reconnaissant en obtenant une moyenne de 7,4⁄10 sur la base de 185 évaluations.
+Sur le site agrégateur américain Rotten Tomatoes, le film bénéficie d'un taux d'approbation de 64% basé sur 39 opinions (25 critiques positives et 14 négatives) et d'une note moyenne de 6,30⁄10. Le consensus critique du site Web se lit comme suit : « Cube a parfois du mal à savoir où prendre ses prémisses intrigantes, mais un rythme captivant et une intelligence impressionnante font qu'il est difficile de se détourner. ».
 En France, les retours sont tout aussi favorables :
-Le site Allociné recense une moyenne des critiques presse de 3,2⁄5 sur la base 9 critiques[11] et recense une moyenne de 3,3⁄5 sur la base 610 critiques de la part des spectateurs[14].
-Sur le site SensCritique, le long métrage obtient une moyenne de 6,3⁄10 sur la base d’environ 24 000 retours du public dont 700 coups de cœur et environ 3 000 envies[15].
-L'hebdomadaire culturel français Télérama recense une moyenne de ses lecteurs de 2,99⁄5 pour 1 509 critiques[12].
-box-office</t>
+Le site Allociné recense une moyenne des critiques presse de 3,2⁄5 sur la base 9 critiques et recense une moyenne de 3,3⁄5 sur la base 610 critiques de la part des spectateurs.
+Sur le site SensCritique, le long métrage obtient une moyenne de 6,3⁄10 sur la base d’environ 24 000 retours du public dont 700 coups de cœur et environ 3 000 envies.
+L'hebdomadaire culturel français Télérama recense une moyenne de ses lecteurs de 2,99⁄5 pour 1 509 critiques.</t>
         </is>
       </c>
     </row>
@@ -721,11 +745,12 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Entre 1997 et 2002, Cube a été sélectionné 23 fois dans diverses catégories et a remporté 13 récompenses[16],[17].
-Récompenses
-Nominations</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entre 1997 et 2002, Cube a été sélectionné 23 fois dans diverses catégories et a remporté 13 récompenses,.
+</t>
         </is>
       </c>
     </row>
@@ -755,20 +780,94 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Analyse mathématique
-Le film a recouru aux services du mathématicien professionnel David Pravica pour la conception du cube[18], la logique interne du film a donc une base mathématique.
-Ainsi, le cube est constitué de 263 = 17576 pièces[18]. Chacune d'entre elles est identifiée par un triplet d'entiers à trois chiffres et si l'un des nombres du triplet est une puissance d'un nombre premier, elle contient un piège mortel[18]. Toutes les pièces se déplacent suivant un mécanisme basé sur l'étude des permutations qui permet à Leaven de trouver le chemin de la sortie[18].
-Cependant les erreurs de réalisation, de dialogues et de traduction sont nombreuses, si bien que de nombreuses incohérences sont introduites par rapport aux règles de l'univers du film[18].
-Personnages
-Les personnages portent le nom de pénitenciers :
+          <t>Analyse mathématique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film a recouru aux services du mathématicien professionnel David Pravica pour la conception du cube, la logique interne du film a donc une base mathématique.
+Ainsi, le cube est constitué de 263 = 17576 pièces. Chacune d'entre elles est identifiée par un triplet d'entiers à trois chiffres et si l'un des nombres du triplet est une puissance d'un nombre premier, elle contient un piège mortel. Toutes les pièces se déplacent suivant un mécanisme basé sur l'étude des permutations qui permet à Leaven de trouver le chemin de la sortie.
+Cependant les erreurs de réalisation, de dialogues et de traduction sont nombreuses, si bien que de nombreuses incohérences sont introduites par rapport aux règles de l'univers du film.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cube_(film,_1997)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cube_(film,_1997)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Autour du film</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Les personnages portent le nom de pénitenciers :
 Quentin (policier) : la prison d'État San Quentin à Marin County, California
 Holloway (médecin) : la prison de Holloway à Londres
 Kazan (autiste) : la prison de Kazan en Russie
 Rennes (expert en évasion) : la prison de Rennes en France
 Alderson : le Alderson Federal Prison Camp (en) à Alderson, West Virginia
-Leaven (étudiante en mathématiques) et Worth (architecte) : le pénitencier fédéral de Leavenworth à Leavenworth, Kansas
-Métaphores
-Le film Cube peut être considéré comme une sorte de métaphore du conditionnement des êtres humains dans la société.
+Leaven (étudiante en mathématiques) et Worth (architecte) : le pénitencier fédéral de Leavenworth à Leavenworth, Kansas</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cube_(film,_1997)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cube_(film,_1997)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Autour du film</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Métaphores</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Le film Cube peut être considéré comme une sorte de métaphore du conditionnement des êtres humains dans la société.
 Chacun des personnages a une fonction définie censée aider à résoudre l'énigme, mais les prisonniers du cube s'en rendent difficilement compte et se divisent au lieu de s'unir dans le but de trouver la sortie.
 Sur les six victimes, seules deux sont tuées par le Cube et les autres s'entre-tuent.
 Certains dialogues du film vont également dans ce sens :
